--- a/biology/Botanique/Muellerina/Muellerina.xlsx
+++ b/biology/Botanique/Muellerina/Muellerina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muellerina est un genre de la famille des Loranthaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muellerina est un genre de la famille des Loranthaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muellerina est un genre d'arbuste parasitaire par une tige aérienne avec des stolons externes. Les feuilles sont opposées, pennées ou avec des veines longitudinales incurvées[1].
-L'inflorescence est terminale, elle donne 1 à 6 paires décussées de triades pédonculées ou de fleurs simples, avec la fleur centrale sessile, les fleurs latérales ont des pédicelles latéraux de 3 à 6 mm et une bractée sous chaque fleur. La corolle est courbée en bouton, libre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muellerina est un genre d'arbuste parasitaire par une tige aérienne avec des stolons externes. Les feuilles sont opposées, pennées ou avec des veines longitudinales incurvées.
+L'inflorescence est terminale, elle donne 1 à 6 paires décussées de triades pédonculées ou de fleurs simples, avec la fleur centrale sessile, les fleurs latérales ont des pédicelles latéraux de 3 à 6 mm et une bractée sous chaque fleur. La corolle est courbée en bouton, libre.
 Le fruit est en forme de poire.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muellerina est endémique de l'Australie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muellerina est endémique de l'Australie.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Muellerina bidwillii  (Benth.) Barlow
 Muellerina celastroides   (Sieber ex Schult. &amp; Schult.f) Tiegh.
@@ -609,10 +627,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles de Delias harpalyce et Ogyris genoveva se nourrissent de Muellerina.
-Un inventaire des plantes hôtes de Muellerina est donné par Downey[2].
+Un inventaire des plantes hôtes de Muellerina est donné par Downey.
 </t>
         </is>
       </c>
